--- a/Database/data/cs699_seating_arangement.xlsx
+++ b/Database/data/cs699_seating_arangement.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>StudentID</t>
   </si>
@@ -482,6 +482,9 @@
       <c r="B13" s="3">
         <v>24.0</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
@@ -490,6 +493,9 @@
       <c r="B14" s="3">
         <v>26.0</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -498,6 +504,9 @@
       <c r="B15" s="3">
         <v>28.0</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -506,6 +515,9 @@
       <c r="B16" s="3">
         <v>30.0</v>
       </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
@@ -514,6 +526,9 @@
       <c r="B17" s="3">
         <v>32.0</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
@@ -522,6 +537,9 @@
       <c r="B18" s="3">
         <v>36.0</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
@@ -530,6 +548,9 @@
       <c r="B19" s="3">
         <v>40.0</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -538,6 +559,9 @@
       <c r="B20" s="3">
         <v>42.0</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
@@ -545,6 +569,9 @@
       </c>
       <c r="B21" s="3">
         <v>44.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
